--- a/scenario/ScenarioPlay4.xlsx
+++ b/scenario/ScenarioPlay4.xlsx
@@ -1408,9 +1408,6 @@
     <t xml:space="preserve">……行ってくるね。</t>
   </si>
   <si>
-    <t xml:space="preserve">倒壊した校舎</t>
-  </si>
-  <si>
     <t xml:space="preserve">……こより！！！！！</t>
   </si>
   <si>
@@ -1652,6 +1649,9 @@
   </si>
   <si>
     <t xml:space="preserve">ありがとう。……いってくる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校</t>
   </si>
   <si>
     <t xml:space="preserve">…おばあちゃん</t>
@@ -1954,9 +1954,6 @@
     <t xml:space="preserve">走る</t>
   </si>
   <si>
-    <t xml:space="preserve">学校</t>
-  </si>
-  <si>
     <t xml:space="preserve">はぁっ、はぁ……っ</t>
   </si>
   <si>
@@ -2412,6 +2409,9 @@
   </si>
   <si>
     <t xml:space="preserve">こより、手を</t>
+  </si>
+  <si>
+    <t xml:space="preserve">倒壊した校舎</t>
   </si>
   <si>
     <t xml:space="preserve">はぁっ、はぁ……こりゃすげぇな</t>
@@ -2690,8 +2690,8 @@
   </sheetPr>
   <dimension ref="A1:Q312"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B299" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D312" activeCellId="0" sqref="D312"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A295" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B243" activeCellId="0" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7192,15 +7192,15 @@
       </c>
       <c r="P154" s="1"/>
     </row>
-    <row r="155" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D155" s="1" t="n">
         <v>1</v>
@@ -7221,18 +7221,18 @@
         <v>62</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>1</v>
@@ -7254,15 +7254,15 @@
       </c>
       <c r="P156" s="1"/>
     </row>
-    <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D157" s="1" t="n">
         <v>1</v>
@@ -7284,21 +7284,21 @@
       </c>
       <c r="P157" s="1"/>
     </row>
-    <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D158" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -7314,21 +7314,21 @@
       </c>
       <c r="P158" s="1"/>
     </row>
-    <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -7340,25 +7340,25 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
       <c r="O159" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P159" s="1"/>
     </row>
-    <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D160" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -7370,19 +7370,19 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
       <c r="O160" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P160" s="1"/>
     </row>
-    <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D161" s="1" t="n">
         <v>1</v>
@@ -7400,19 +7400,19 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
       <c r="O161" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P161" s="1"/>
     </row>
-    <row r="162" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D162" s="1" t="n">
         <v>1</v>
@@ -7430,19 +7430,19 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
       <c r="O162" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P162" s="1"/>
     </row>
-    <row r="163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D163" s="1" t="n">
         <v>1</v>
@@ -7460,19 +7460,19 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P163" s="1"/>
     </row>
-    <row r="164" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D164" s="1" t="n">
         <v>1</v>
@@ -7490,19 +7490,19 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P164" s="1"/>
     </row>
-    <row r="165" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D165" s="1" t="n">
         <v>1</v>
@@ -7520,25 +7520,25 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
       <c r="O165" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P165" s="1"/>
     </row>
-    <row r="166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -7550,19 +7550,19 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
       <c r="O166" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P166" s="1"/>
     </row>
-    <row r="167" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>1</v>
@@ -7580,19 +7580,19 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P167" s="1"/>
     </row>
-    <row r="168" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D168" s="1" t="n">
         <v>1</v>
@@ -7610,19 +7610,19 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
       <c r="O168" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P168" s="1"/>
     </row>
-    <row r="169" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D169" s="1" t="n">
         <v>1</v>
@@ -7640,19 +7640,19 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
       <c r="O169" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P169" s="1"/>
     </row>
-    <row r="170" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D170" s="1" t="n">
         <v>1</v>
@@ -7670,19 +7670,19 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P170" s="1"/>
     </row>
-    <row r="171" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>1</v>
@@ -7700,19 +7700,19 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P171" s="1"/>
     </row>
-    <row r="172" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D172" s="1" t="n">
         <v>1</v>
@@ -7730,19 +7730,19 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P172" s="1"/>
     </row>
-    <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D173" s="1" t="n">
         <v>1</v>
@@ -7760,19 +7760,19 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
       <c r="O173" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P173" s="1"/>
     </row>
-    <row r="174" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D174" s="1" t="n">
         <v>1</v>
@@ -7790,19 +7790,19 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
       <c r="O174" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P174" s="1"/>
     </row>
-    <row r="175" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D175" s="1" t="n">
         <v>1</v>
@@ -7820,13 +7820,13 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
       <c r="O175" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P175" s="1"/>
     </row>
-    <row r="176" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>17</v>
@@ -7850,19 +7850,19 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P176" s="1"/>
     </row>
-    <row r="177" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D177" s="1" t="n">
         <v>1</v>
@@ -7880,19 +7880,19 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>1</v>
@@ -7910,19 +7910,19 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P178" s="1"/>
     </row>
-    <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D179" s="1" t="n">
         <v>1</v>
@@ -7940,19 +7940,19 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P179" s="1"/>
     </row>
-    <row r="180" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D180" s="1" t="n">
         <v>1</v>
@@ -7970,19 +7970,19 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P180" s="1"/>
     </row>
-    <row r="181" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>1</v>
@@ -8000,19 +8000,19 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P181" s="1"/>
     </row>
-    <row r="182" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D182" s="1" t="n">
         <v>1</v>
@@ -8030,19 +8030,19 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P182" s="1"/>
     </row>
-    <row r="183" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>1</v>
@@ -8060,19 +8060,19 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>1</v>
@@ -8090,19 +8090,19 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D185" s="1" t="n">
         <v>1</v>
@@ -8120,19 +8120,19 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D186" s="1" t="n">
         <v>1</v>
@@ -8150,19 +8150,19 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P186" s="1"/>
     </row>
-    <row r="187" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D187" s="1" t="n">
         <v>1</v>
@@ -8180,19 +8180,19 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P187" s="1"/>
     </row>
-    <row r="188" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D188" s="1" t="n">
         <v>1</v>
@@ -8210,19 +8210,19 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P188" s="1"/>
     </row>
-    <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>1</v>
@@ -8240,19 +8240,19 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P189" s="1"/>
     </row>
-    <row r="190" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>1</v>
@@ -8270,13 +8270,13 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
       <c r="O190" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P190" s="1"/>
     </row>
-    <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1" t="s">
@@ -8302,15 +8302,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D192" s="1" t="n">
         <v>1</v>
@@ -8332,21 +8332,21 @@
       </c>
       <c r="P192" s="1"/>
     </row>
-    <row r="193" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D193" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -8362,9 +8362,9 @@
       </c>
       <c r="P193" s="1"/>
     </row>
-    <row r="194" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="7" t="s">
@@ -8388,21 +8388,21 @@
       </c>
       <c r="P194" s="1"/>
     </row>
-    <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -8418,21 +8418,21 @@
       </c>
       <c r="P195" s="1"/>
     </row>
-    <row r="196" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D196" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D196" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -8448,15 +8448,15 @@
       </c>
       <c r="P196" s="1"/>
     </row>
-    <row r="197" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>1</v>
@@ -8478,9 +8478,9 @@
       </c>
       <c r="P197" s="1"/>
     </row>
-    <row r="198" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="7" t="s">
@@ -8504,9 +8504,9 @@
       </c>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>17</v>
@@ -8534,9 +8534,9 @@
       </c>
       <c r="P199" s="1"/>
     </row>
-    <row r="200" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>78</v>
@@ -8562,9 +8562,9 @@
       </c>
       <c r="P200" s="1"/>
     </row>
-    <row r="201" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>78</v>
@@ -8590,9 +8590,9 @@
       </c>
       <c r="P201" s="1"/>
     </row>
-    <row r="202" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>17</v>
@@ -8620,9 +8620,9 @@
       </c>
       <c r="P202" s="1"/>
     </row>
-    <row r="203" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>78</v>
@@ -8648,9 +8648,9 @@
       </c>
       <c r="P203" s="1"/>
     </row>
-    <row r="204" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>78</v>
@@ -8676,15 +8676,15 @@
       </c>
       <c r="P204" s="1"/>
     </row>
-    <row r="205" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D205" s="1" t="n">
         <v>1</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="206" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1" t="s">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8754,7 +8754,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>78</v>
@@ -8780,9 +8780,9 @@
       </c>
       <c r="P208" s="1"/>
     </row>
-    <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>17</v>
@@ -8812,7 +8812,7 @@
     </row>
     <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>78</v>
@@ -8840,7 +8840,7 @@
     </row>
     <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>17</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>78</v>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>78</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>17</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="215" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>17</v>
@@ -9010,9 +9010,9 @@
       </c>
       <c r="P216" s="1"/>
     </row>
-    <row r="217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="7"/>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>78</v>
@@ -9066,7 +9066,7 @@
     </row>
     <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>78</v>
@@ -9094,7 +9094,7 @@
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1" t="s">
@@ -9122,7 +9122,7 @@
     </row>
     <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>21</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>27</v>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>24</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>17</v>
@@ -9242,7 +9242,7 @@
     </row>
     <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>24</v>
@@ -9272,7 +9272,7 @@
     </row>
     <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>24</v>
@@ -9302,7 +9302,7 @@
     </row>
     <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>17</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>27</v>
@@ -9360,9 +9360,9 @@
       </c>
       <c r="P228" s="1"/>
     </row>
-    <row r="229" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1" t="s">
@@ -9388,9 +9388,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="7" t="s">
@@ -9416,13 +9416,13 @@
     </row>
     <row r="231" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>1</v>
@@ -9440,25 +9440,25 @@
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
       <c r="O231" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P231" s="1"/>
     </row>
     <row r="232" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D232" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D232" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -9470,19 +9470,19 @@
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
       <c r="O232" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P232" s="1"/>
     </row>
     <row r="233" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D233" s="1" t="n">
         <v>1</v>
@@ -9500,19 +9500,19 @@
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P233" s="1"/>
     </row>
     <row r="234" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>1</v>
@@ -9530,25 +9530,25 @@
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
       <c r="O234" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P234" s="1"/>
     </row>
     <row r="235" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D235" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E235" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="D235" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -9560,25 +9560,25 @@
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
       <c r="O235" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P235" s="1"/>
     </row>
     <row r="236" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D236" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="D236" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -9590,25 +9590,25 @@
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
       <c r="O236" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P236" s="1"/>
     </row>
     <row r="237" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
@@ -9620,25 +9620,25 @@
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
       <c r="O237" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P237" s="1"/>
     </row>
     <row r="238" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D238" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E238" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="D238" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -9650,25 +9650,25 @@
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
       <c r="O238" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P238" s="1"/>
     </row>
     <row r="239" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D239" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E239" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="D239" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -9680,25 +9680,25 @@
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
       <c r="O239" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P239" s="1"/>
     </row>
     <row r="240" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C240" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D240" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D240" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -9710,25 +9710,25 @@
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P240" s="1"/>
     </row>
     <row r="241" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -9740,13 +9740,13 @@
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
       <c r="O241" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P241" s="1"/>
     </row>
     <row r="242" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="7" t="s">
@@ -9766,17 +9766,17 @@
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
       <c r="O242" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P242" s="1"/>
     </row>
     <row r="243" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>0</v>
@@ -9792,7 +9792,7 @@
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
       <c r="O243" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P243" s="1"/>
     </row>
@@ -9832,9 +9832,9 @@
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
     </row>
-    <row r="246" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>78</v>
@@ -9860,21 +9860,21 @@
       </c>
       <c r="P246" s="1"/>
     </row>
-    <row r="247" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -9890,15 +9890,15 @@
       </c>
       <c r="P247" s="1"/>
     </row>
-    <row r="248" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>1</v>
@@ -9918,15 +9918,15 @@
       </c>
       <c r="P248" s="1"/>
     </row>
-    <row r="249" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>1</v>
@@ -9946,15 +9946,15 @@
       </c>
       <c r="P249" s="1"/>
     </row>
-    <row r="250" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>1</v>
@@ -9974,21 +9974,21 @@
       </c>
       <c r="P250" s="1"/>
     </row>
-    <row r="251" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -10004,15 +10004,15 @@
       </c>
       <c r="P251" s="1"/>
     </row>
-    <row r="252" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>1</v>
@@ -10032,21 +10032,21 @@
       </c>
       <c r="P252" s="1"/>
     </row>
-    <row r="253" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -10064,7 +10064,7 @@
     </row>
     <row r="254" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -10080,7 +10080,7 @@
         <v>251</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
@@ -10090,15 +10090,15 @@
       </c>
       <c r="P254" s="1"/>
     </row>
-    <row r="255" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>1</v>
@@ -10118,15 +10118,15 @@
       </c>
       <c r="P255" s="1"/>
     </row>
-    <row r="256" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>1</v>
@@ -10146,13 +10146,13 @@
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
     </row>
-    <row r="257" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>1</v>
@@ -10170,15 +10170,15 @@
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
     </row>
-    <row r="258" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>1</v>
@@ -10194,19 +10194,19 @@
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P258" s="1"/>
     </row>
-    <row r="259" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1</v>
@@ -10224,13 +10224,13 @@
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P259" s="1"/>
     </row>
-    <row r="260" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>78</v>
@@ -10252,19 +10252,19 @@
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P260" s="1"/>
     </row>
-    <row r="261" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>1</v>
@@ -10282,19 +10282,19 @@
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P261" s="1"/>
     </row>
-    <row r="262" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>1</v>
@@ -10312,19 +10312,19 @@
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P262" s="1"/>
     </row>
-    <row r="263" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>1</v>
@@ -10342,19 +10342,19 @@
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P263" s="1"/>
     </row>
-    <row r="264" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D264" s="1" t="n">
         <v>1</v>
@@ -10372,25 +10372,25 @@
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P264" s="1"/>
     </row>
-    <row r="265" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C265" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D265" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D265" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -10402,25 +10402,25 @@
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P265" s="1"/>
     </row>
-    <row r="266" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D266" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -10432,25 +10432,25 @@
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P266" s="1"/>
     </row>
-    <row r="267" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D267" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -10462,19 +10462,19 @@
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P267" s="1"/>
     </row>
-    <row r="268" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D268" s="1" t="n">
         <v>1</v>
@@ -10490,25 +10490,25 @@
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P268" s="1"/>
     </row>
-    <row r="269" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D269" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -10520,25 +10520,25 @@
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P269" s="1"/>
     </row>
-    <row r="270" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D270" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -10550,25 +10550,25 @@
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P270" s="1"/>
     </row>
-    <row r="271" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -10580,19 +10580,19 @@
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P271" s="1"/>
     </row>
-    <row r="272" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D272" s="1" t="n">
         <v>1</v>
@@ -10608,19 +10608,19 @@
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P272" s="1"/>
     </row>
-    <row r="273" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>1</v>
@@ -10636,19 +10636,19 @@
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P273" s="1"/>
     </row>
-    <row r="274" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>5</v>
@@ -10664,25 +10664,25 @@
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P274" s="1"/>
     </row>
-    <row r="275" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -10694,19 +10694,19 @@
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P275" s="1"/>
     </row>
-    <row r="276" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>1</v>
@@ -10722,19 +10722,19 @@
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P276" s="1"/>
     </row>
-    <row r="277" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D277" s="1" t="n">
         <v>1</v>
@@ -10750,25 +10750,25 @@
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P277" s="1"/>
     </row>
-    <row r="278" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -10780,13 +10780,13 @@
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P278" s="1"/>
     </row>
-    <row r="279" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>78</v>
@@ -10808,19 +10808,19 @@
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P279" s="1"/>
     </row>
-    <row r="280" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>1</v>
@@ -10836,17 +10836,17 @@
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P280" s="1"/>
     </row>
-    <row r="281" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>1</v>
@@ -10862,25 +10862,25 @@
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P281" s="1"/>
     </row>
     <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -10898,13 +10898,13 @@
     </row>
     <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D283" s="1" t="n">
         <v>1</v>
@@ -10928,19 +10928,19 @@
     </row>
     <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -10958,19 +10958,19 @@
     </row>
     <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -10988,7 +10988,7 @@
     </row>
     <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B286" s="1"/>
       <c r="C286" s="1" t="s">
@@ -11016,13 +11016,13 @@
     </row>
     <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>1</v>
@@ -11046,13 +11046,13 @@
     </row>
     <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D288" s="1" t="n">
         <v>1</v>
@@ -11076,7 +11076,7 @@
     </row>
     <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1" t="s">
@@ -11102,13 +11102,13 @@
     </row>
     <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>1</v>
@@ -11132,19 +11132,19 @@
     </row>
     <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -11160,9 +11160,9 @@
       </c>
       <c r="P291" s="1"/>
     </row>
-    <row r="292" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B292" s="3"/>
       <c r="C292" s="1" t="s">
@@ -11190,7 +11190,7 @@
     </row>
     <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>24</v>
@@ -11220,7 +11220,7 @@
     </row>
     <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>27</v>
@@ -11232,7 +11232,7 @@
         <v>1</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -11248,9 +11248,9 @@
       </c>
       <c r="P294" s="1"/>
     </row>
-    <row r="295" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>17</v>
@@ -11262,7 +11262,7 @@
         <v>1</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -11280,7 +11280,7 @@
     </row>
     <row r="296" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>17</v>
@@ -11292,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -11310,7 +11310,7 @@
     </row>
     <row r="297" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>21</v>
@@ -11322,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="298" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>24</v>
@@ -11352,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
@@ -11370,7 +11370,7 @@
     </row>
     <row r="299" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>21</v>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="300" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>24</v>
@@ -11430,7 +11430,7 @@
     </row>
     <row r="301" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>27</v>
@@ -11442,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
@@ -11460,7 +11460,7 @@
     </row>
     <row r="302" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>24</v>
@@ -11472,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="303" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>17</v>
@@ -11502,7 +11502,7 @@
         <v>1</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -11520,11 +11520,11 @@
     </row>
     <row r="304" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B304" s="1"/>
       <c r="C304" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>1</v>
@@ -11546,7 +11546,7 @@
     </row>
     <row r="305" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>17</v>
@@ -11558,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -11576,7 +11576,7 @@
     </row>
     <row r="306" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>17</v>
@@ -11588,7 +11588,7 @@
         <v>1</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="307" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>17</v>
@@ -11618,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -11636,7 +11636,7 @@
     </row>
     <row r="308" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>17</v>
@@ -11648,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="309" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>21</v>
@@ -11694,7 +11694,7 @@
     </row>
     <row r="310" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>17</v>
@@ -11706,7 +11706,7 @@
         <v>1</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -11724,7 +11724,7 @@
     </row>
     <row r="311" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B311" s="1"/>
       <c r="C311" s="7" t="s">
@@ -11750,7 +11750,7 @@
     </row>
     <row r="312" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="B312" s="1"/>
       <c r="C312" s="4" t="s">

--- a/scenario/ScenarioPlay4.xlsx
+++ b/scenario/ScenarioPlay4.xlsx
@@ -1789,9 +1789,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">倒壊した校舎</t>
-  </si>
-  <si>
     <t xml:space="preserve">…おばあちゃん、わたし…</t>
   </si>
   <si>
@@ -2132,7 +2129,7 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">⽩鷺</t>
+      <t xml:space="preserve">白鷺</t>
     </r>
     <r>
       <rPr>
@@ -2191,6 +2188,9 @@
     <t xml:space="preserve">こより、手を</t>
   </si>
   <si>
+    <t xml:space="preserve">倒壊した校舎</t>
+  </si>
+  <si>
     <t xml:space="preserve">はぁっ、はぁ……こりゃすげぇな</t>
   </si>
   <si>
@@ -2234,7 +2234,7 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">⽩鷺</t>
+      <t xml:space="preserve">白鷺</t>
     </r>
     <r>
       <rPr>
@@ -2348,7 +2348,7 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">⽩鷺</t>
+      <t xml:space="preserve">白鷺</t>
     </r>
     <r>
       <rPr>
@@ -3251,13 +3251,13 @@
     <t xml:space="preserve">見事なほどに綺麗なドミノ倒し…</t>
   </si>
   <si>
-    <t xml:space="preserve">骨格</t>
+    <t xml:space="preserve">骨格標本</t>
   </si>
   <si>
     <t xml:space="preserve">おやおや、これは一旦なんの騒ぎだい？</t>
   </si>
   <si>
-    <t xml:space="preserve">人体</t>
+    <t xml:space="preserve">人体模型</t>
   </si>
   <si>
     <t xml:space="preserve">全く、エレガントじゃないわね…</t>
@@ -3918,8 +3918,8 @@
   </sheetPr>
   <dimension ref="A1:P439"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A344" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C416" activeCellId="0" sqref="C416"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A376" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B399" activeCellId="0" sqref="B399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -11062,9 +11062,9 @@
       <c r="O245" s="5"/>
       <c r="P245" s="5"/>
     </row>
-    <row r="246" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>78</v>
@@ -11090,21 +11090,21 @@
       </c>
       <c r="P246" s="1"/>
     </row>
-    <row r="247" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D247" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D247" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -11120,15 +11120,15 @@
       </c>
       <c r="P247" s="1"/>
     </row>
-    <row r="248" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>1</v>
@@ -11148,15 +11148,15 @@
       </c>
       <c r="P248" s="1"/>
     </row>
-    <row r="249" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>1</v>
@@ -11176,15 +11176,15 @@
       </c>
       <c r="P249" s="1"/>
     </row>
-    <row r="250" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>1</v>
@@ -11204,21 +11204,21 @@
       </c>
       <c r="P250" s="1"/>
     </row>
-    <row r="251" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -11234,15 +11234,15 @@
       </c>
       <c r="P251" s="1"/>
     </row>
-    <row r="252" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>1</v>
@@ -11262,21 +11262,21 @@
       </c>
       <c r="P252" s="1"/>
     </row>
-    <row r="253" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -11294,7 +11294,7 @@
     </row>
     <row r="254" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -11307,10 +11307,10 @@
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K254" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="K254" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
@@ -11320,15 +11320,15 @@
       </c>
       <c r="P254" s="1"/>
     </row>
-    <row r="255" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>1</v>
@@ -11348,21 +11348,21 @@
       </c>
       <c r="P255" s="1"/>
     </row>
-    <row r="256" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C256" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D256" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D256" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -11376,13 +11376,13 @@
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
     </row>
-    <row r="257" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>1</v>
@@ -11400,15 +11400,15 @@
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
     </row>
-    <row r="258" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>1</v>
@@ -11424,25 +11424,25 @@
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
       <c r="O258" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P258" s="1"/>
     </row>
-    <row r="259" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -11454,13 +11454,13 @@
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
       <c r="O259" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P259" s="1"/>
     </row>
-    <row r="260" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>78</v>
@@ -11482,25 +11482,25 @@
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
       <c r="O260" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P260" s="1"/>
     </row>
-    <row r="261" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -11512,25 +11512,25 @@
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P261" s="1"/>
     </row>
-    <row r="262" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -11542,25 +11542,25 @@
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
       <c r="O262" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P262" s="1"/>
     </row>
-    <row r="263" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -11572,25 +11572,25 @@
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
       <c r="O263" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P263" s="1"/>
     </row>
-    <row r="264" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D264" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -11602,25 +11602,25 @@
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
       <c r="O264" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P264" s="1"/>
     </row>
-    <row r="265" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C265" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D265" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="D265" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -11632,25 +11632,25 @@
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
       <c r="O265" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P265" s="1"/>
     </row>
-    <row r="266" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D266" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -11662,25 +11662,25 @@
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
       <c r="O266" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P266" s="1"/>
     </row>
-    <row r="267" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D267" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -11692,19 +11692,19 @@
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
       <c r="O267" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P267" s="1"/>
     </row>
-    <row r="268" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D268" s="1" t="n">
         <v>1</v>
@@ -11720,25 +11720,25 @@
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P268" s="1"/>
     </row>
-    <row r="269" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D269" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -11750,25 +11750,25 @@
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
       <c r="O269" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P269" s="1"/>
     </row>
-    <row r="270" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D270" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -11780,25 +11780,25 @@
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
       <c r="O270" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P270" s="1"/>
     </row>
-    <row r="271" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C271" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D271" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="D271" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -11810,19 +11810,19 @@
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
       <c r="O271" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P271" s="1"/>
     </row>
-    <row r="272" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>286</v>
+        <v>177</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D272" s="1" t="n">
         <v>1</v>
@@ -11838,19 +11838,19 @@
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
       <c r="O272" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P272" s="1"/>
     </row>
-    <row r="273" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="7" t="s">
-        <v>286</v>
+        <v>177</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>1</v>
@@ -11866,22 +11866,22 @@
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
       <c r="O273" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P273" s="1"/>
     </row>
-    <row r="274" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="7" t="s">
-        <v>286</v>
+        <v>177</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D274" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -11894,25 +11894,25 @@
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
       <c r="O274" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P274" s="1"/>
     </row>
-    <row r="275" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -11924,19 +11924,19 @@
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
       <c r="O275" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P275" s="1"/>
     </row>
-    <row r="276" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>1</v>
@@ -11952,19 +11952,19 @@
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
       <c r="O276" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P276" s="1"/>
     </row>
-    <row r="277" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D277" s="1" t="n">
         <v>1</v>
@@ -11980,25 +11980,25 @@
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
       <c r="O277" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P277" s="1"/>
     </row>
-    <row r="278" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -12010,13 +12010,13 @@
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
       <c r="O278" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P278" s="1"/>
     </row>
-    <row r="279" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>78</v>
@@ -12038,19 +12038,19 @@
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
       <c r="O279" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P279" s="1"/>
     </row>
-    <row r="280" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>1</v>
@@ -12066,17 +12066,17 @@
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
       <c r="O280" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P280" s="1"/>
     </row>
-    <row r="281" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>1</v>
@@ -12092,25 +12092,25 @@
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P281" s="1"/>
     </row>
-    <row r="282" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -12126,21 +12126,21 @@
       </c>
       <c r="P282" s="1"/>
     </row>
-    <row r="283" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C283" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D283" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="D283" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
@@ -12156,21 +12156,21 @@
       </c>
       <c r="P283" s="1"/>
     </row>
-    <row r="284" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -12186,21 +12186,21 @@
       </c>
       <c r="P284" s="1"/>
     </row>
-    <row r="285" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B285" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C285" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D285" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E285" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D285" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -12216,9 +12216,9 @@
       </c>
       <c r="P285" s="1"/>
     </row>
-    <row r="286" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B286" s="1"/>
       <c r="C286" s="1" t="s">
@@ -12244,21 +12244,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C287" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D287" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="D287" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -12274,21 +12274,21 @@
       </c>
       <c r="P287" s="1"/>
     </row>
-    <row r="288" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B288" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C288" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D288" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D288" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -12304,9 +12304,9 @@
       </c>
       <c r="P288" s="1"/>
     </row>
-    <row r="289" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1" t="s">
@@ -12330,21 +12330,21 @@
       </c>
       <c r="P289" s="1"/>
     </row>
-    <row r="290" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B290" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -12360,21 +12360,21 @@
       </c>
       <c r="P290" s="1"/>
     </row>
-    <row r="291" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -12390,9 +12390,9 @@
       </c>
       <c r="P291" s="1"/>
     </row>
-    <row r="292" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B292" s="7"/>
       <c r="C292" s="1" t="s">
@@ -12416,9 +12416,9 @@
       </c>
       <c r="P292" s="1"/>
     </row>
-    <row r="293" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B293" s="7" t="s">
         <v>24</v>
@@ -12446,9 +12446,9 @@
       </c>
       <c r="P293" s="1"/>
     </row>
-    <row r="294" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>27</v>
@@ -12476,9 +12476,9 @@
       </c>
       <c r="P294" s="1"/>
     </row>
-    <row r="295" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>17</v>
@@ -12490,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
@@ -12506,9 +12506,9 @@
       </c>
       <c r="P295" s="1"/>
     </row>
-    <row r="296" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>17</v>
@@ -12520,7 +12520,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -12536,9 +12536,9 @@
       </c>
       <c r="P296" s="1"/>
     </row>
-    <row r="297" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B297" s="7" t="s">
         <v>21</v>
@@ -12566,9 +12566,9 @@
       </c>
       <c r="P297" s="1"/>
     </row>
-    <row r="298" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>24</v>
@@ -12580,7 +12580,7 @@
         <v>1</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
@@ -12596,9 +12596,9 @@
       </c>
       <c r="P298" s="1"/>
     </row>
-    <row r="299" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B299" s="7" t="s">
         <v>21</v>
@@ -12626,9 +12626,9 @@
       </c>
       <c r="P299" s="1"/>
     </row>
-    <row r="300" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B300" s="7" t="s">
         <v>24</v>
@@ -12640,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
@@ -12656,9 +12656,9 @@
       </c>
       <c r="P300" s="1"/>
     </row>
-    <row r="301" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>27</v>
@@ -12686,9 +12686,9 @@
       </c>
       <c r="P301" s="1"/>
     </row>
-    <row r="302" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B302" s="7" t="s">
         <v>24</v>
@@ -12716,9 +12716,9 @@
       </c>
       <c r="P302" s="1"/>
     </row>
-    <row r="303" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>17</v>
@@ -12730,7 +12730,7 @@
         <v>1</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -12746,13 +12746,13 @@
       </c>
       <c r="P303" s="1"/>
     </row>
-    <row r="304" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B304" s="1"/>
       <c r="C304" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>1</v>
@@ -12772,9 +12772,9 @@
       </c>
       <c r="P304" s="1"/>
     </row>
-    <row r="305" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>17</v>
@@ -12786,7 +12786,7 @@
         <v>1</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -12802,9 +12802,9 @@
       </c>
       <c r="P305" s="1"/>
     </row>
-    <row r="306" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>17</v>
@@ -12816,7 +12816,7 @@
         <v>1</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -12832,9 +12832,9 @@
       </c>
       <c r="P306" s="1"/>
     </row>
-    <row r="307" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>17</v>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
@@ -12862,9 +12862,9 @@
       </c>
       <c r="P307" s="1"/>
     </row>
-    <row r="308" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>17</v>
@@ -12876,7 +12876,7 @@
         <v>1</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -12892,9 +12892,9 @@
       </c>
       <c r="P308" s="1"/>
     </row>
-    <row r="309" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B309" s="7" t="s">
         <v>21</v>
@@ -12920,9 +12920,9 @@
       </c>
       <c r="P309" s="1"/>
     </row>
-    <row r="310" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>17</v>
@@ -12934,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -12950,9 +12950,9 @@
       </c>
       <c r="P310" s="1"/>
     </row>
-    <row r="311" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B311" s="1"/>
       <c r="C311" s="5" t="s">
@@ -12976,9 +12976,9 @@
       </c>
       <c r="P311" s="1"/>
     </row>
-    <row r="312" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="B312" s="1"/>
       <c r="C312" s="3" t="s">
@@ -13181,13 +13181,13 @@
     </row>
     <row r="329" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="8" t="s">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>365</v>
       </c>
       <c r="D329" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O329" s="7" t="s">
         <v>362</v>
@@ -14024,7 +14024,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="8" t="s">
         <v>415</v>
       </c>
@@ -14041,9 +14041,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="8" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>365</v>
@@ -14995,7 +14995,7 @@
         <v>21</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D423" s="0" t="n">
         <v>1</v>

--- a/scenario/ScenarioPlay4.xlsx
+++ b/scenario/ScenarioPlay4.xlsx
@@ -3918,8 +3918,8 @@
   </sheetPr>
   <dimension ref="A1:P439"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A376" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B399" activeCellId="0" sqref="B399"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A398" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A424" activeCellId="0" sqref="A424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14875,7 +14875,7 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="8" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="C417" s="0" t="s">
         <v>242</v>
